--- a/source_data/taxation-alcoholic-beverages-ctt-trends.xlsx
+++ b/source_data/taxation-alcoholic-beverages-ctt-trends.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\sdataCTP\Applic\TPS\1_CONSUMPTION TAXES UNIT\CT TRENDS\CT Trends 2018 Edition\2 Publication ENG\00 - Final PAC files\Statlinks DOI list Consumption Tax Trends 2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Applic\TPSII\OECD Tax Database\Consumption TaxTrends Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,14 +15,14 @@
     <sheet name="4.3" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'4.3'!$A$1:$F$45</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'4.3'!$A$1:$F$46</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="76">
   <si>
     <t>National currency</t>
   </si>
@@ -78,9 +78,6 @@
     <t>Estonia</t>
   </si>
   <si>
-    <t>Notes</t>
-  </si>
-  <si>
     <t>%</t>
   </si>
   <si>
@@ -228,35 +225,10 @@
     <t>53%</t>
   </si>
   <si>
-    <t>Conversion of national currency in USD: conversion rates are average market rates (2015) published in OECD Monthly Monetary Statistics (stats.oecd.org)</t>
-  </si>
-  <si>
     <t>Lithuania</t>
   </si>
   <si>
-    <t>Market Exchange Rates 2017</t>
-  </si>
-  <si>
     <t>5.0/13.0/15.0</t>
-  </si>
-  <si>
-    <t>6.0/21.0</t>
-  </si>
-  <si>
-    <r>
-      <t>Source:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> national delegates; position as at 1 January 2018.</t>
-    </r>
-  </si>
-  <si>
-    <t>* Country notes: see box 3.A3.3</t>
   </si>
   <si>
     <t>Country note</t>
@@ -285,20 +257,27 @@
         <rFont val="Helvetica"/>
         <family val="2"/>
       </rPr>
-      <t>Taxation of alcoholic beverages</t>
+      <t>Taxation of alcoholic beverages (a)</t>
     </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <t>1. Alcoholic beverages other than those included in Tables 3.A.1 and 3.A.2</t>
+  </si>
+  <si>
+    <t>Market Exchange Rates 2019</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>COP</t>
+  </si>
+  <si>
+    <t>9.0/21.0</t>
+  </si>
+  <si>
+    <t>Notes
+* See Country notes
+Conversion of national currency in USD: conversion rates are average market rates (2019) published in OECD Monthly Monetary Statistics
+(stats.oecd.org).
+Source: national delegates. Position as at 1 January 2020.</t>
   </si>
 </sst>
 </file>
@@ -308,7 +287,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#\ ##0.00"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -364,12 +343,6 @@
       <sz val="9"/>
       <name val="Helvetica"/>
     </font>
-    <font>
-      <b/>
-      <vertAlign val="superscript"/>
-      <sz val="9"/>
-      <name val="Helvetica"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -616,7 +589,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -697,12 +670,16 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -742,10 +719,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1053,9 +1032,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K67"/>
+  <dimension ref="A1:K68"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A42" sqref="A42:F42"/>
     </sheetView>
   </sheetViews>
@@ -1070,44 +1049,44 @@
     <col min="7" max="16384" width="14.7109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13.5">
-      <c r="A1" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
+    <row r="1" spans="1:8">
+      <c r="A1" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="41"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="43"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="43"/>
+      <c r="D3" s="45"/>
       <c r="E3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="44" t="s">
+      <c r="F3" s="46" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="21.75" customHeight="1">
       <c r="A4" s="12"/>
       <c r="B4" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>0</v>
@@ -1116,26 +1095,26 @@
         <v>1</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="45"/>
+        <v>18</v>
+      </c>
+      <c r="F4" s="47"/>
       <c r="H4" s="13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="15">
         <v>8105</v>
       </c>
       <c r="D5" s="15">
         <f>C5/H5</f>
-        <v>6187.0229007633588</v>
+        <v>5628.4722222222226</v>
       </c>
       <c r="E5" s="15">
         <v>10</v>
@@ -1144,15 +1123,15 @@
         <v>4</v>
       </c>
       <c r="H5" s="29">
-        <v>1.31</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" s="17">
         <v>1200</v>
@@ -1176,13 +1155,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="19">
         <v>2992.79</v>
       </c>
       <c r="D7" s="19">
-        <f t="shared" ref="D7:D39" si="0">C7/H7</f>
+        <f t="shared" ref="D7:D41" si="0">C7/H7</f>
         <v>3362.6853932584268</v>
       </c>
       <c r="E7" s="19">
@@ -1197,37 +1176,37 @@
     </row>
     <row r="8" spans="1:8" ht="12.75" customHeight="1">
       <c r="A8" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" s="17">
-        <v>1193</v>
+        <v>1237.5</v>
       </c>
       <c r="D8" s="17">
         <f t="shared" si="0"/>
-        <v>917.69230769230762</v>
+        <v>930.45112781954879</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F8" s="23" t="s">
         <v>4</v>
       </c>
       <c r="H8" s="30">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="12.75" customHeight="1">
       <c r="A9" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D9" s="19" t="s">
         <v>6</v>
@@ -1239,1014 +1218,1031 @@
         <v>4</v>
       </c>
       <c r="H9" s="29">
-        <v>648.67999999999995</v>
+        <v>702.9</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="19">
+        <v>19</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="29">
+        <v>3280.83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A11" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B11" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="17">
+        <v>32250</v>
+      </c>
+      <c r="D11" s="17">
+        <f t="shared" si="0"/>
+        <v>1406.4544265154818</v>
+      </c>
+      <c r="E11" s="17">
+        <v>21</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="30">
+        <v>22.93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="17">
-        <v>28500</v>
-      </c>
-      <c r="D10" s="17">
-        <f t="shared" si="0"/>
-        <v>1218.4694313809321</v>
-      </c>
-      <c r="E10" s="17">
+      <c r="C12" s="19">
+        <v>15000</v>
+      </c>
+      <c r="D12" s="19">
+        <f t="shared" si="0"/>
+        <v>2248.8755622188905</v>
+      </c>
+      <c r="E12" s="19">
+        <v>25</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="29">
+        <v>6.67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="H10" s="30">
-        <v>23.39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="18" t="s">
+      <c r="C13" s="17">
+        <v>1881</v>
+      </c>
+      <c r="D13" s="17">
+        <f t="shared" si="0"/>
+        <v>2113.4831460674159</v>
+      </c>
+      <c r="E13" s="17">
+        <v>20</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" s="30">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B14" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="19">
+        <v>4880</v>
+      </c>
+      <c r="D14" s="19">
+        <f t="shared" si="0"/>
+        <v>5483.1460674157306</v>
+      </c>
+      <c r="E14" s="19">
+        <v>24</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="29">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="28">
+        <v>1758.54</v>
+      </c>
+      <c r="D15" s="28">
+        <f t="shared" si="0"/>
+        <v>1975.8876404494381</v>
+      </c>
+      <c r="E15" s="17">
+        <v>20</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="30">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="19">
+        <v>1303</v>
+      </c>
+      <c r="D16" s="19">
+        <f t="shared" si="0"/>
+        <v>1464.0449438202247</v>
+      </c>
+      <c r="E16" s="19">
+        <v>19</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="H16" s="29">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="17">
+        <v>2450</v>
+      </c>
+      <c r="D17" s="17">
+        <f t="shared" si="0"/>
+        <v>2752.8089887640449</v>
+      </c>
+      <c r="E17" s="17">
+        <v>23</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17" s="30">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="19">
-        <v>15000</v>
-      </c>
-      <c r="D11" s="19">
-        <f t="shared" si="0"/>
-        <v>2272.727272727273</v>
-      </c>
-      <c r="E11" s="19">
-        <v>25</v>
-      </c>
-      <c r="F11" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="H11" s="29">
-        <v>6.6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="16" t="s">
+      <c r="C18" s="19">
+        <v>333385</v>
+      </c>
+      <c r="D18" s="19">
+        <f t="shared" si="0"/>
+        <v>1146.9930502993186</v>
+      </c>
+      <c r="E18" s="19">
+        <v>27</v>
+      </c>
+      <c r="F18" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18" s="29">
+        <v>290.66000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="17">
+        <v>1549000</v>
+      </c>
+      <c r="D19" s="17">
+        <f t="shared" si="0"/>
+        <v>12633.553543756627</v>
+      </c>
+      <c r="E19" s="17">
+        <v>11</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="H19" s="30">
+        <v>122.61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="19">
+        <v>4257</v>
+      </c>
+      <c r="D20" s="19">
+        <f t="shared" si="0"/>
+        <v>4783.1460674157306</v>
+      </c>
+      <c r="E20" s="19">
+        <v>23</v>
+      </c>
+      <c r="F20" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="29">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="17">
+        <v>8551</v>
+      </c>
+      <c r="D21" s="19">
+        <f t="shared" si="0"/>
+        <v>2401.9662921348313</v>
+      </c>
+      <c r="E21" s="17">
         <v>17</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="F21" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="30">
+        <v>3.56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="19">
+        <v>1032.52</v>
+      </c>
+      <c r="D22" s="19">
+        <f t="shared" si="0"/>
+        <v>1160.1348314606741</v>
+      </c>
+      <c r="E22" s="19">
         <v>22</v>
       </c>
-      <c r="C12" s="17">
-        <v>2508</v>
-      </c>
-      <c r="D12" s="17">
-        <f t="shared" si="0"/>
-        <v>2817.9775280898875</v>
-      </c>
-      <c r="E12" s="17">
-        <v>20</v>
-      </c>
-      <c r="F12" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="H12" s="30">
+      <c r="F22" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="29">
         <v>0.89</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="19">
-        <v>4785</v>
-      </c>
-      <c r="D13" s="19">
-        <f t="shared" si="0"/>
-        <v>5376.4044943820227</v>
-      </c>
-      <c r="E13" s="19">
-        <v>24</v>
-      </c>
-      <c r="F13" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="H13" s="29">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="28">
-        <v>1741.04</v>
-      </c>
-      <c r="D14" s="28">
-        <f t="shared" si="0"/>
-        <v>1956.2247191011236</v>
-      </c>
-      <c r="E14" s="17">
-        <v>20</v>
-      </c>
-      <c r="F14" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="30">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="19">
-        <v>1303</v>
-      </c>
-      <c r="D15" s="19">
-        <f t="shared" si="0"/>
-        <v>1464.0449438202247</v>
-      </c>
-      <c r="E15" s="19">
-        <v>19</v>
-      </c>
-      <c r="F15" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="H15" s="29">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="17">
-        <v>2450</v>
-      </c>
-      <c r="D16" s="17">
-        <f t="shared" si="0"/>
-        <v>2752.8089887640449</v>
-      </c>
-      <c r="E16" s="17">
-        <v>23</v>
-      </c>
-      <c r="F16" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="H16" s="30">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="19">
-        <v>333385</v>
-      </c>
-      <c r="D17" s="19">
-        <f t="shared" si="0"/>
-        <v>1214.6058000582921</v>
-      </c>
-      <c r="E17" s="19">
-        <v>27</v>
-      </c>
-      <c r="F17" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="H17" s="29">
-        <v>274.48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="17">
-        <v>1474000</v>
-      </c>
-      <c r="D18" s="17">
-        <f t="shared" si="0"/>
-        <v>13798.91406103726</v>
-      </c>
-      <c r="E18" s="17">
-        <v>11</v>
-      </c>
-      <c r="F18" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="H18" s="30">
-        <v>106.82</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="19">
-        <v>4257</v>
-      </c>
-      <c r="D19" s="19">
-        <f t="shared" si="0"/>
-        <v>4783.1460674157306</v>
-      </c>
-      <c r="E19" s="19">
-        <v>23</v>
-      </c>
-      <c r="F19" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="H19" s="29">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" s="16" t="s">
+    <row r="23" spans="1:8">
+      <c r="A23" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="17">
-        <v>8424</v>
-      </c>
-      <c r="D20" s="19">
-        <f t="shared" si="0"/>
-        <v>2340</v>
-      </c>
-      <c r="E20" s="17">
-        <v>17</v>
-      </c>
-      <c r="F20" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="H20" s="30">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="B21" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="19">
-        <v>1032.52</v>
-      </c>
-      <c r="D21" s="19">
-        <f t="shared" si="0"/>
-        <v>1160.1348314606741</v>
-      </c>
-      <c r="E21" s="19">
-        <v>22</v>
-      </c>
-      <c r="F21" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="H21" s="29">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="16" t="s">
+      <c r="C23" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="17">
+        <v>10</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="H23" s="30">
+        <v>109.01</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B24" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="D22" s="17" t="s">
+      <c r="C24" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E22" s="17">
-        <v>8</v>
-      </c>
-      <c r="F22" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="H22" s="30">
-        <v>112.18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="19">
+      <c r="E24" s="19">
         <v>10</v>
       </c>
-      <c r="F23" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="H23" s="29">
-        <v>1130.6400000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="17">
-        <v>1450</v>
-      </c>
-      <c r="D24" s="17">
-        <f>C24/H24</f>
-        <v>1629.2134831460673</v>
-      </c>
-      <c r="E24" s="17">
-        <v>21</v>
-      </c>
-      <c r="F24" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="H24" s="30">
-        <v>0.89</v>
+      <c r="F24" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="H24" s="29">
+        <v>1165.5</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="16" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C25" s="17">
-        <v>1665.04</v>
+        <v>1564</v>
       </c>
       <c r="D25" s="17">
         <f>C25/H25</f>
-        <v>1870.8314606741571</v>
+        <v>1757.3033707865168</v>
       </c>
       <c r="E25" s="17">
         <v>21</v>
       </c>
       <c r="F25" s="23" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H25" s="30">
         <v>0.89</v>
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="19">
-        <v>1041.1500000000001</v>
+      <c r="A26" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="17">
+        <v>1832</v>
       </c>
       <c r="D26" s="17">
         <f>C26/H26</f>
+        <v>2058.4269662921347</v>
+      </c>
+      <c r="E26" s="17">
+        <v>21</v>
+      </c>
+      <c r="F26" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="H26" s="30">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="19">
+        <v>1041.1500000000001</v>
+      </c>
+      <c r="D27" s="17">
+        <f>C27/H27</f>
         <v>1169.8314606741574</v>
       </c>
-      <c r="E26" s="19">
+      <c r="E27" s="19">
         <v>17</v>
       </c>
-      <c r="F26" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="H26" s="29">
+      <c r="F27" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="H27" s="29">
         <v>0.89</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="16" t="s">
+    <row r="28" spans="1:8">
+      <c r="A28" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="17">
+        <v>16</v>
+      </c>
+      <c r="F28" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="H28" s="30">
+        <v>19.260000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B29" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="19">
+        <v>1686</v>
+      </c>
+      <c r="D29" s="19">
+        <f t="shared" si="0"/>
+        <v>1894.38202247191</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="F29" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="H29" s="29">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="D27" s="17" t="s">
+      <c r="C30" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E27" s="17">
-        <v>16</v>
-      </c>
-      <c r="F27" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="H27" s="30">
-        <v>18.87</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="B28" s="18" t="s">
+      <c r="E30" s="17">
+        <v>15</v>
+      </c>
+      <c r="F30" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="H30" s="30">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="19">
+        <v>78400</v>
+      </c>
+      <c r="D31" s="19">
+        <f t="shared" si="0"/>
+        <v>8909.0909090909081</v>
+      </c>
+      <c r="E31" s="19">
+        <v>25</v>
+      </c>
+      <c r="F31" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="H31" s="29">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="17">
+        <v>6275</v>
+      </c>
+      <c r="D32" s="17">
+        <f t="shared" si="0"/>
+        <v>1634.1145833333335</v>
+      </c>
+      <c r="E32" s="17">
+        <v>23</v>
+      </c>
+      <c r="F32" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="H32" s="30">
+        <v>3.84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="19">
+        <v>1386.93</v>
+      </c>
+      <c r="D33" s="19">
+        <f t="shared" si="0"/>
+        <v>1558.3483146067417</v>
+      </c>
+      <c r="E33" s="19">
+        <v>23</v>
+      </c>
+      <c r="F33" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="H33" s="29">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="17">
+        <v>1080</v>
+      </c>
+      <c r="D34" s="17">
+        <f t="shared" si="0"/>
+        <v>1213.4831460674156</v>
+      </c>
+      <c r="E34" s="17">
+        <v>20</v>
+      </c>
+      <c r="F34" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="H34" s="30">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="19">
+        <v>1320</v>
+      </c>
+      <c r="D35" s="19">
+        <f t="shared" si="0"/>
+        <v>1483.1460674157304</v>
+      </c>
+      <c r="E35" s="19">
         <v>22</v>
       </c>
-      <c r="C28" s="19">
-        <v>1686</v>
-      </c>
-      <c r="D28" s="19">
-        <f t="shared" si="0"/>
-        <v>1894.38202247191</v>
-      </c>
-      <c r="E28" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="F28" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="H28" s="29">
+      <c r="F35" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="H35" s="29">
         <v>0.89</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="B29" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29" s="17" t="s">
+    <row r="36" spans="1:11">
+      <c r="A36" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" s="17">
+        <v>958.94</v>
+      </c>
+      <c r="D36" s="17">
+        <f>C36/H36</f>
+        <v>1077.4606741573034</v>
+      </c>
+      <c r="E36" s="17">
+        <v>21</v>
+      </c>
+      <c r="F36" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="H36" s="30">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" s="19">
+        <v>51569</v>
+      </c>
+      <c r="D37" s="19">
+        <f t="shared" si="0"/>
+        <v>5451.2684989429172</v>
+      </c>
+      <c r="E37" s="19">
+        <v>25</v>
+      </c>
+      <c r="F37" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="H37" s="29">
+        <v>9.4600000000000009</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" s="17">
+        <v>2900</v>
+      </c>
+      <c r="D38" s="17">
+        <f t="shared" si="0"/>
+        <v>2929.2929292929293</v>
+      </c>
+      <c r="E38" s="17">
+        <v>7.7</v>
+      </c>
+      <c r="F38" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="H38" s="30">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" s="19">
+        <v>27929.02</v>
+      </c>
+      <c r="D39" s="19">
+        <f t="shared" si="0"/>
+        <v>4925.7530864197533</v>
+      </c>
+      <c r="E39" s="19">
+        <v>18</v>
+      </c>
+      <c r="F39" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="H39" s="29">
+        <v>5.67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" s="17">
+        <v>2874</v>
+      </c>
+      <c r="D40" s="17">
+        <f t="shared" si="0"/>
+        <v>3684.6153846153843</v>
+      </c>
+      <c r="E40" s="17">
+        <v>20</v>
+      </c>
+      <c r="F40" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="H40" s="30">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="21">
+        <v>909</v>
+      </c>
+      <c r="D41" s="17">
+        <f t="shared" si="0"/>
+        <v>909</v>
+      </c>
+      <c r="E41" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="F41" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="H41" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="D29" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" s="17">
-        <v>15</v>
-      </c>
-      <c r="F29" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="H29" s="30">
-        <v>1.41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B30" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="19">
-        <v>75800</v>
-      </c>
-      <c r="D30" s="19">
-        <f t="shared" si="0"/>
-        <v>9165.6590084643285</v>
-      </c>
-      <c r="E30" s="19">
-        <v>25</v>
-      </c>
-      <c r="F30" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="H30" s="29">
-        <v>8.27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B31" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C31" s="17">
-        <v>5704</v>
-      </c>
-      <c r="D31" s="17">
-        <f t="shared" si="0"/>
-        <v>1508.9947089947091</v>
-      </c>
-      <c r="E31" s="17">
-        <v>23</v>
-      </c>
-      <c r="F31" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="H31" s="30">
-        <v>3.78</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="B32" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C32" s="19">
-        <v>1386.93</v>
-      </c>
-      <c r="D32" s="19">
-        <f t="shared" si="0"/>
-        <v>1558.3483146067417</v>
-      </c>
-      <c r="E32" s="19">
-        <v>23</v>
-      </c>
-      <c r="F32" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="H32" s="29">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="B33" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C33" s="17">
-        <v>1080</v>
-      </c>
-      <c r="D33" s="17">
-        <f t="shared" si="0"/>
-        <v>1213.4831460674156</v>
-      </c>
-      <c r="E33" s="17">
-        <v>20</v>
-      </c>
-      <c r="F33" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="H33" s="30">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="B34" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C34" s="19">
-        <v>1320</v>
-      </c>
-      <c r="D34" s="19">
-        <f t="shared" si="0"/>
-        <v>1483.1460674157304</v>
-      </c>
-      <c r="E34" s="19">
-        <v>22</v>
-      </c>
-      <c r="F34" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="H34" s="29">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="B35" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C35" s="17">
-        <v>913.28</v>
-      </c>
-      <c r="D35" s="17">
-        <f t="shared" si="0"/>
-        <v>1026.1573033707864</v>
-      </c>
-      <c r="E35" s="17">
-        <v>21</v>
-      </c>
-      <c r="F35" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="H35" s="30">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B36" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C36" s="19">
-        <v>51569</v>
-      </c>
-      <c r="D36" s="19">
-        <f t="shared" si="0"/>
-        <v>6031.4619883040932</v>
-      </c>
-      <c r="E36" s="19">
-        <v>25</v>
-      </c>
-      <c r="F36" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="H36" s="29">
-        <v>8.5500000000000007</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="B37" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C37" s="17">
-        <v>2900</v>
-      </c>
-      <c r="D37" s="17">
-        <f t="shared" si="0"/>
-        <v>2929.2929292929293</v>
-      </c>
-      <c r="E37" s="17">
-        <v>7.7</v>
-      </c>
-      <c r="F37" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="H37" s="30">
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="B38" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C38" s="19">
-        <v>18439.82</v>
-      </c>
-      <c r="D38" s="19">
-        <f t="shared" si="0"/>
-        <v>5052.0054794520547</v>
-      </c>
-      <c r="E38" s="19">
-        <v>18</v>
-      </c>
-      <c r="F38" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="H38" s="29">
-        <v>3.65</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="B39" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C39" s="17">
-        <v>2874</v>
-      </c>
-      <c r="D39" s="17">
-        <f t="shared" si="0"/>
-        <v>3684.6153846153843</v>
-      </c>
-      <c r="E39" s="17">
-        <v>20</v>
-      </c>
-      <c r="F39" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="H39" s="30">
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
-      <c r="A40" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="B40" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C40" s="21">
-        <v>995</v>
-      </c>
-      <c r="D40" s="21">
-        <v>995</v>
-      </c>
-      <c r="E40" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="F40" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="H40" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
-      <c r="A41" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="1"/>
-    </row>
-    <row r="42" spans="1:11">
-      <c r="A42" s="48" t="s">
-        <v>77</v>
-      </c>
-      <c r="B42" s="48"/>
-      <c r="C42" s="48"/>
-      <c r="D42" s="48"/>
-      <c r="E42" s="48"/>
-      <c r="F42" s="48"/>
+      <c r="B42" s="50"/>
+      <c r="C42" s="50"/>
+      <c r="D42" s="50"/>
+      <c r="E42" s="50"/>
+      <c r="F42" s="50"/>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B43" s="3"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="1"/>
-    </row>
-    <row r="44" spans="1:11" s="27" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A44" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="B44" s="36"/>
-      <c r="C44" s="36"/>
-      <c r="D44" s="36"/>
-      <c r="E44" s="36"/>
-      <c r="F44" s="36"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="26"/>
-      <c r="I44" s="26"/>
-      <c r="J44" s="26"/>
-      <c r="K44" s="26"/>
-    </row>
-    <row r="45" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A45" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="B45" s="46"/>
-      <c r="C45" s="35"/>
-      <c r="D45" s="35"/>
-      <c r="E45" s="35"/>
-      <c r="F45" s="35"/>
-    </row>
-    <row r="46" spans="1:11" ht="26.25" customHeight="1">
-      <c r="A46" s="32"/>
-      <c r="B46" s="32"/>
-      <c r="C46" s="33"/>
-      <c r="D46" s="33"/>
-      <c r="E46" s="33"/>
-      <c r="F46" s="33"/>
-    </row>
-    <row r="47" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A47" s="34"/>
-      <c r="B47" s="34"/>
-      <c r="C47" s="35"/>
-      <c r="D47" s="35"/>
-      <c r="E47" s="35"/>
-      <c r="F47" s="35"/>
-    </row>
-    <row r="48" spans="1:11" ht="27.75" customHeight="1">
-      <c r="A48" s="34"/>
-      <c r="B48" s="34"/>
-      <c r="C48" s="35"/>
-      <c r="D48" s="35"/>
-      <c r="E48" s="35"/>
-      <c r="F48" s="35"/>
-    </row>
-    <row r="49" spans="1:6" ht="36.75" customHeight="1">
-      <c r="A49" s="32"/>
-      <c r="B49" s="32"/>
-      <c r="C49" s="33"/>
-      <c r="D49" s="33"/>
-      <c r="E49" s="33"/>
-      <c r="F49" s="33"/>
-    </row>
-    <row r="50" spans="1:6" ht="26.25" customHeight="1">
-      <c r="A50" s="32"/>
-      <c r="B50" s="32"/>
-      <c r="C50" s="33"/>
-      <c r="D50" s="33"/>
-      <c r="E50" s="33"/>
-      <c r="F50" s="33"/>
-    </row>
-    <row r="51" spans="1:6" ht="59.25" customHeight="1">
-      <c r="A51" s="32"/>
-      <c r="B51" s="32"/>
-      <c r="C51" s="32"/>
-      <c r="D51" s="32"/>
-      <c r="E51" s="32"/>
-      <c r="F51" s="32"/>
-    </row>
-    <row r="52" spans="1:6" ht="18" customHeight="1">
-      <c r="A52" s="32"/>
-      <c r="B52" s="32"/>
-      <c r="C52" s="32"/>
-      <c r="D52" s="32"/>
-      <c r="E52" s="32"/>
-      <c r="F52" s="32"/>
-    </row>
-    <row r="53" spans="1:6" ht="30" customHeight="1">
-      <c r="A53" s="32"/>
-      <c r="B53" s="32"/>
+      <c r="A43" s="35"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="35"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="35"/>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="1"/>
+    </row>
+    <row r="45" spans="1:11" s="27" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A45" s="38"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="38"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="26"/>
+      <c r="I45" s="26"/>
+      <c r="J45" s="26"/>
+      <c r="K45" s="26"/>
+    </row>
+    <row r="46" spans="1:11" ht="16.5" customHeight="1">
+      <c r="A46" s="48"/>
+      <c r="B46" s="48"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="37"/>
+      <c r="F46" s="37"/>
+    </row>
+    <row r="47" spans="1:11" ht="26.25" customHeight="1">
+      <c r="A47" s="33"/>
+      <c r="B47" s="33"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="34"/>
+      <c r="F47" s="34"/>
+    </row>
+    <row r="48" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A48" s="36"/>
+      <c r="B48" s="36"/>
+      <c r="C48" s="37"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="37"/>
+    </row>
+    <row r="49" spans="1:6" ht="27.75" customHeight="1">
+      <c r="A49" s="36"/>
+      <c r="B49" s="36"/>
+      <c r="C49" s="37"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="37"/>
+      <c r="F49" s="37"/>
+    </row>
+    <row r="50" spans="1:6" ht="36.75" customHeight="1">
+      <c r="A50" s="33"/>
+      <c r="B50" s="33"/>
+      <c r="C50" s="34"/>
+      <c r="D50" s="34"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="34"/>
+    </row>
+    <row r="51" spans="1:6" ht="26.25" customHeight="1">
+      <c r="A51" s="33"/>
+      <c r="B51" s="33"/>
+      <c r="C51" s="34"/>
+      <c r="D51" s="34"/>
+      <c r="E51" s="34"/>
+      <c r="F51" s="34"/>
+    </row>
+    <row r="52" spans="1:6" ht="59.25" customHeight="1">
+      <c r="A52" s="33"/>
+      <c r="B52" s="33"/>
+      <c r="C52" s="33"/>
+      <c r="D52" s="33"/>
+      <c r="E52" s="33"/>
+      <c r="F52" s="33"/>
+    </row>
+    <row r="53" spans="1:6" ht="18" customHeight="1">
+      <c r="A53" s="33"/>
+      <c r="B53" s="33"/>
       <c r="C53" s="33"/>
       <c r="D53" s="33"/>
       <c r="E53" s="33"/>
       <c r="F53" s="33"/>
     </row>
-    <row r="54" spans="1:6" ht="35.25" customHeight="1">
-      <c r="A54" s="32"/>
-      <c r="B54" s="32"/>
-      <c r="C54" s="33"/>
-      <c r="D54" s="33"/>
-      <c r="E54" s="33"/>
-      <c r="F54" s="33"/>
-    </row>
-    <row r="55" spans="1:6" ht="24.75" customHeight="1">
-      <c r="A55" s="32"/>
-      <c r="B55" s="32"/>
-      <c r="C55" s="33"/>
-      <c r="D55" s="33"/>
-      <c r="E55" s="33"/>
-      <c r="F55" s="33"/>
-    </row>
-    <row r="56" spans="1:6" ht="17.25" customHeight="1">
-      <c r="A56" s="32"/>
-      <c r="B56" s="32"/>
-      <c r="C56" s="33"/>
-      <c r="D56" s="33"/>
-      <c r="E56" s="33"/>
-      <c r="F56" s="33"/>
-    </row>
-    <row r="57" spans="1:6" ht="44.25" customHeight="1">
-      <c r="A57" s="32"/>
-      <c r="B57" s="32"/>
-      <c r="C57" s="33"/>
-      <c r="D57" s="33"/>
-      <c r="E57" s="33"/>
-      <c r="F57" s="33"/>
-    </row>
-    <row r="58" spans="1:6" ht="17.25" customHeight="1">
-      <c r="A58" s="32"/>
-      <c r="B58" s="32"/>
-      <c r="C58" s="33"/>
-      <c r="D58" s="33"/>
-      <c r="E58" s="33"/>
-      <c r="F58" s="33"/>
-    </row>
-    <row r="59" spans="1:6" ht="36" customHeight="1">
-      <c r="A59" s="32"/>
-      <c r="B59" s="32"/>
-      <c r="C59" s="32"/>
-      <c r="D59" s="32"/>
-      <c r="E59" s="32"/>
-      <c r="F59" s="32"/>
-    </row>
-    <row r="60" spans="1:6" ht="26.25" customHeight="1">
-      <c r="A60" s="32"/>
-      <c r="B60" s="32"/>
-      <c r="C60" s="32"/>
-      <c r="D60" s="32"/>
-      <c r="E60" s="32"/>
-      <c r="F60" s="32"/>
-    </row>
-    <row r="61" spans="1:6" ht="28.5" customHeight="1">
-      <c r="A61" s="32"/>
-      <c r="B61" s="32"/>
+    <row r="54" spans="1:6" ht="30" customHeight="1">
+      <c r="A54" s="33"/>
+      <c r="B54" s="33"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="34"/>
+      <c r="F54" s="34"/>
+    </row>
+    <row r="55" spans="1:6" ht="35.25" customHeight="1">
+      <c r="A55" s="33"/>
+      <c r="B55" s="33"/>
+      <c r="C55" s="34"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="34"/>
+      <c r="F55" s="34"/>
+    </row>
+    <row r="56" spans="1:6" ht="24.75" customHeight="1">
+      <c r="A56" s="33"/>
+      <c r="B56" s="33"/>
+      <c r="C56" s="34"/>
+      <c r="D56" s="34"/>
+      <c r="E56" s="34"/>
+      <c r="F56" s="34"/>
+    </row>
+    <row r="57" spans="1:6" ht="17.25" customHeight="1">
+      <c r="A57" s="33"/>
+      <c r="B57" s="33"/>
+      <c r="C57" s="34"/>
+      <c r="D57" s="34"/>
+      <c r="E57" s="34"/>
+      <c r="F57" s="34"/>
+    </row>
+    <row r="58" spans="1:6" ht="44.25" customHeight="1">
+      <c r="A58" s="33"/>
+      <c r="B58" s="33"/>
+      <c r="C58" s="34"/>
+      <c r="D58" s="34"/>
+      <c r="E58" s="34"/>
+      <c r="F58" s="34"/>
+    </row>
+    <row r="59" spans="1:6" ht="17.25" customHeight="1">
+      <c r="A59" s="33"/>
+      <c r="B59" s="33"/>
+      <c r="C59" s="34"/>
+      <c r="D59" s="34"/>
+      <c r="E59" s="34"/>
+      <c r="F59" s="34"/>
+    </row>
+    <row r="60" spans="1:6" ht="36" customHeight="1">
+      <c r="A60" s="33"/>
+      <c r="B60" s="33"/>
+      <c r="C60" s="33"/>
+      <c r="D60" s="33"/>
+      <c r="E60" s="33"/>
+      <c r="F60" s="33"/>
+    </row>
+    <row r="61" spans="1:6" ht="26.25" customHeight="1">
+      <c r="A61" s="33"/>
+      <c r="B61" s="33"/>
       <c r="C61" s="33"/>
       <c r="D61" s="33"/>
       <c r="E61" s="33"/>
       <c r="F61" s="33"/>
     </row>
-    <row r="62" spans="1:6" ht="57" customHeight="1">
-      <c r="A62" s="32"/>
-      <c r="B62" s="32"/>
-      <c r="C62" s="33"/>
-      <c r="D62" s="33"/>
-      <c r="E62" s="33"/>
-      <c r="F62" s="33"/>
-    </row>
-    <row r="63" spans="1:6" ht="40.5" customHeight="1">
-      <c r="A63" s="32"/>
-      <c r="B63" s="32"/>
-      <c r="C63" s="33"/>
-      <c r="D63" s="33"/>
-      <c r="E63" s="33"/>
-      <c r="F63" s="33"/>
-    </row>
-    <row r="64" spans="1:6" ht="27" customHeight="1">
-      <c r="A64" s="32"/>
-      <c r="B64" s="32"/>
-      <c r="C64" s="33"/>
-      <c r="D64" s="33"/>
-      <c r="E64" s="33"/>
-      <c r="F64" s="33"/>
-    </row>
-    <row r="65" spans="1:6" ht="41.25" customHeight="1">
-      <c r="A65" s="32"/>
-      <c r="B65" s="32"/>
-      <c r="C65" s="33"/>
-      <c r="D65" s="33"/>
-      <c r="E65" s="33"/>
-      <c r="F65" s="33"/>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66" s="47"/>
-      <c r="B66" s="47"/>
-      <c r="C66" s="47"/>
-      <c r="D66" s="47"/>
-      <c r="E66" s="47"/>
-      <c r="F66" s="47"/>
+    <row r="62" spans="1:6" ht="28.5" customHeight="1">
+      <c r="A62" s="33"/>
+      <c r="B62" s="33"/>
+      <c r="C62" s="34"/>
+      <c r="D62" s="34"/>
+      <c r="E62" s="34"/>
+      <c r="F62" s="34"/>
+    </row>
+    <row r="63" spans="1:6" ht="57" customHeight="1">
+      <c r="A63" s="33"/>
+      <c r="B63" s="33"/>
+      <c r="C63" s="34"/>
+      <c r="D63" s="34"/>
+      <c r="E63" s="34"/>
+      <c r="F63" s="34"/>
+    </row>
+    <row r="64" spans="1:6" ht="40.5" customHeight="1">
+      <c r="A64" s="33"/>
+      <c r="B64" s="33"/>
+      <c r="C64" s="34"/>
+      <c r="D64" s="34"/>
+      <c r="E64" s="34"/>
+      <c r="F64" s="34"/>
+    </row>
+    <row r="65" spans="1:6" ht="27" customHeight="1">
+      <c r="A65" s="33"/>
+      <c r="B65" s="33"/>
+      <c r="C65" s="34"/>
+      <c r="D65" s="34"/>
+      <c r="E65" s="34"/>
+      <c r="F65" s="34"/>
+    </row>
+    <row r="66" spans="1:6" ht="41.25" customHeight="1">
+      <c r="A66" s="33"/>
+      <c r="B66" s="33"/>
+      <c r="C66" s="34"/>
+      <c r="D66" s="34"/>
+      <c r="E66" s="34"/>
+      <c r="F66" s="34"/>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="47"/>
-      <c r="B67" s="47"/>
-      <c r="C67" s="47"/>
-      <c r="D67" s="47"/>
-      <c r="E67" s="47"/>
-      <c r="F67" s="47"/>
+      <c r="A67" s="32"/>
+      <c r="B67" s="32"/>
+      <c r="C67" s="32"/>
+      <c r="D67" s="32"/>
+      <c r="E67" s="32"/>
+      <c r="F67" s="32"/>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="32"/>
+      <c r="B68" s="32"/>
+      <c r="C68" s="32"/>
+      <c r="D68" s="32"/>
+      <c r="E68" s="32"/>
+      <c r="F68" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="A66:F66"/>
-    <mergeCell ref="A50:F50"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="A67:F67"/>
-    <mergeCell ref="A61:F61"/>
-    <mergeCell ref="A62:F62"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="A64:F64"/>
-    <mergeCell ref="A56:F56"/>
-    <mergeCell ref="A60:F60"/>
-    <mergeCell ref="A65:F65"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="A59:F59"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="A58:F58"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="A55:F55"/>
-    <mergeCell ref="A52:F52"/>
-    <mergeCell ref="A49:F49"/>
+  <mergeCells count="30">
     <mergeCell ref="A47:F47"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="A45:F45"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="F3:F4"/>
-    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="A56:F56"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="A50:F50"/>
     <mergeCell ref="A48:F48"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="A67:F67"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="A68:F68"/>
+    <mergeCell ref="A62:F62"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="A65:F65"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="A61:F61"/>
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="A58:F58"/>
+    <mergeCell ref="A59:F59"/>
+    <mergeCell ref="A54:F54"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="55" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="91" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>